--- a/rendimiento.xlsx
+++ b/rendimiento.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
@@ -537,7 +537,7 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="n">
-        <v>45457.1235374774</v>
+        <v>45457.12353747685</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -558,6 +558,56 @@
       </c>
       <c r="G4" t="n">
         <v>-528257024</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="n">
+        <v>45457.52475821759</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Consulta sin RAG</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>31.31277394294739</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.03193584834809026</v>
+      </c>
+      <c r="F5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-414887936</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="n">
+        <v>45457.52590290392</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Consulta con RAG</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>30</v>
+      </c>
+      <c r="D6" t="n">
+        <v>30.24915885925293</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9917631144584136</v>
+      </c>
+      <c r="F6" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-137252864</v>
       </c>
     </row>
   </sheetData>
